--- a/MainTop/06.04.2025/макс мес с 06.03.2025 по 06.04.2025/спрос_6-4-2025 макс мес с 6-3-2025 по 6-4-2025_sorted.xlsx
+++ b/MainTop/06.04.2025/макс мес с 06.03.2025 по 06.04.2025/спрос_6-4-2025 макс мес с 6-3-2025 по 6-4-2025_sorted.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\06.04.2025\макс мес с 06.03.2025 по 06.04.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB6D465-67E6-4B92-A5AE-7BCA6275070B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C62EC4-230C-4C6E-8A0F-60D94B00EE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
   <si>
     <t>Артикул</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>3_термобирки</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>штрихкод</t>
   </si>
 </sst>
 </file>
@@ -222,7 +228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -245,17 +251,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -558,16 +578,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,8 +605,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+      <c r="F1" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -592,8 +614,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -618,8 +646,12 @@
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <f>F2/2</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -644,8 +676,12 @@
       <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <f>F3/2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -670,8 +706,12 @@
       <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f>F4/2</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -696,8 +736,12 @@
       <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f>F5/2</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -722,8 +766,12 @@
       <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f>F6/2</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -748,8 +796,12 @@
       <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f>F7/2</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -774,8 +826,12 @@
       <c r="H8" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f>F8/2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -800,8 +856,12 @@
       <c r="H9" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f>F9/2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -826,8 +886,12 @@
       <c r="H10" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f>F10/2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -852,8 +916,12 @@
       <c r="H11" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f>F11/2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -878,8 +946,12 @@
       <c r="H12" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f>F12/2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -904,8 +976,12 @@
       <c r="H13" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <f>F13/2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -930,8 +1006,12 @@
       <c r="H14" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <f>F14/2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -956,8 +1036,12 @@
       <c r="H15" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f>F15/2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -982,8 +1066,12 @@
       <c r="H16" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f>F16/2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -1008,8 +1096,12 @@
       <c r="H17" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f>F17/2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -1034,8 +1126,12 @@
       <c r="H18" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f>F18/2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -1060,8 +1156,12 @@
       <c r="H19" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f>F19/2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1086,8 +1186,12 @@
       <c r="H20" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>F20/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -1112,8 +1216,12 @@
       <c r="H21" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <f>F21/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1138,8 +1246,12 @@
       <c r="H22" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f>F22/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -1164,8 +1276,12 @@
       <c r="H23" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f>F23/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1190,8 +1306,12 @@
       <c r="H24" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <f>F24/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -1216,8 +1336,12 @@
       <c r="H25" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <f>F25/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
@@ -1242,8 +1366,12 @@
       <c r="H26" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <f>F26/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
@@ -1268,8 +1396,12 @@
       <c r="H27" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <f>F27/2</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
@@ -1294,8 +1426,12 @@
       <c r="H28" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f>F28/2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -1320,8 +1456,12 @@
       <c r="H29" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <f>F29/2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -1346,8 +1486,12 @@
       <c r="H30" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <f>F30/2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
@@ -1372,8 +1516,12 @@
       <c r="H31" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <f>F31/2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
@@ -1398,8 +1546,12 @@
       <c r="H32" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <f>F32/2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
@@ -1424,8 +1576,12 @@
       <c r="H33" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <f>F33/2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
@@ -1450,8 +1606,12 @@
       <c r="H34" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <f>F34/2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
@@ -1476,8 +1636,12 @@
       <c r="H35" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <f>F35/2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>44</v>
       </c>
@@ -1502,8 +1666,12 @@
       <c r="H36" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <f>F36/2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
@@ -1528,8 +1696,12 @@
       <c r="H37" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <f>F37/2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
@@ -1554,8 +1726,12 @@
       <c r="H38" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <f>F38/2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
@@ -1580,8 +1756,12 @@
       <c r="H39" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <f>F39/2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
@@ -1606,8 +1786,12 @@
       <c r="H40" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <f>F40/2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
@@ -1632,8 +1816,12 @@
       <c r="H41" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <f>F41/2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
@@ -1658,8 +1846,12 @@
       <c r="H42" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <f>F42/2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
@@ -1684,8 +1876,12 @@
       <c r="H43" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <f>F43/2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>52</v>
       </c>
@@ -1709,6 +1905,10 @@
       </c>
       <c r="H44" s="3" t="s">
         <v>53</v>
+      </c>
+      <c r="J44">
+        <f>F44/2</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
